--- a/Code.xlsx
+++ b/Code.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Desktop\TAK Project\Ver_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247B621-1CC9-49F6-91B3-A885E208A37D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B7AFD-A1BA-41C0-A973-4FB9271A8FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A7DA204-9130-4A06-A797-DA3B154BB46C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="463">
   <si>
     <t>Code</t>
   </si>
@@ -1738,6 +1738,20 @@
   <si>
     <t>Check out from the hotel room, visit Omkareshwar and Mamaleshwar temple then travel to Maheshwar from Omkareshwar (approximately 65 km, 1.5–2 hours). Visit Maheshwar Fort and Ahilya Bai Temple. Continue to explore Narmada Ghat, Rajrajeshwar Temple, and Jaleshwar Temple. Then, travel to Indore (approximately 90 km, 2–2.5 hours) and check in at the hotel room in Indore, Late night Explore Indore Sarafa Bazar.
 *Indore Night stay*</t>
+  </si>
+  <si>
+    <t>Checkout from Indore Hotel room, Explore
+Khajrana Temple,
+Rajwada palace, Annapurna Temple , Lal Bagh Palace, Regional Park , Treasure Island
+Mall ,Chappan dukan,Central Museum. 
+Travel Khandwa (150Km-4Hrs), and drop to Hotel room
+*Khandwa Night stay*</t>
+  </si>
+  <si>
+    <t>I-IE-KhaHS</t>
+  </si>
+  <si>
+    <t>Indore-Khandwa</t>
   </si>
 </sst>
 </file>
@@ -1990,7 +2004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,6 +2096,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3084,13 +3101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBB1FC-4380-41DB-A744-3FA6E2D6B5A0}">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B221" sqref="B221"/>
+      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5487,7 +5504,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="58">
+    <row r="218" spans="1:3" ht="58.5" thickBot="1">
       <c r="A218" s="31" t="s">
         <v>457</v>
       </c>
@@ -5498,14 +5515,26 @@
         <v>458</v>
       </c>
     </row>
+    <row r="219" spans="1:3" ht="87.5" thickBot="1">
+      <c r="A219" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C219" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15" thickTop="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A219:A995">
+  <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A220:A995">
     <cfRule type="duplicateValues" dxfId="63" priority="86"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A174 A176:A194 A213 A219:A1048576">
+  <conditionalFormatting sqref="A1:A174 A176:A194 A213 A220:A1048576">
     <cfRule type="duplicateValues" dxfId="62" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A194 A213 A219:A1048576">
+  <conditionalFormatting sqref="A1:A194 A213 A220:A1048576">
     <cfRule type="duplicateValues" dxfId="61" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
@@ -5609,8 +5638,8 @@
     <cfRule type="duplicateValues" dxfId="27" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
     <cfRule type="duplicateValues" dxfId="24" priority="24"/>
@@ -5633,31 +5662,31 @@
     <cfRule type="duplicateValues" dxfId="17" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A998:A1048576 A1:A127 A129:A168 A177:A181 A183:A193 A213 A219:A995">
-    <cfRule type="duplicateValues" dxfId="12" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
     <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A998:A1048576 A1:A127 A129:A168 A177:A181 A183:A193 A213 A220:A995">
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Code.xlsx
+++ b/Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67B7AFD-A1BA-41C0-A973-4FB9271A8FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E69725-B067-4541-B9D7-5D379639563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A7DA204-9130-4A06-A797-DA3B154BB46C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="467">
   <si>
     <t>Code</t>
   </si>
@@ -1752,6 +1752,24 @@
   </si>
   <si>
     <t>Indore-Khandwa</t>
+  </si>
+  <si>
+    <t>IHC-UD</t>
+  </si>
+  <si>
+    <t>O-IE-IS</t>
+  </si>
+  <si>
+    <t>Checkout the Hotel room in Omkareshwar,
+ Travel to Indore(3Hrs-90Km). 
+Visit Khajrana Temple,
+Rajwada palace, Annapurna Temple , Lal Bagh Palace, Regional Park , Treasure Island
+Mall ,Chappan dukan,Central Museum.
+Late Night explore Indore Sarafa Bazar.
+*Indore Night Stay*</t>
+  </si>
+  <si>
+    <t>Check out from the hotel room in Indore and travel to Ujjain( Approx.90 mins – 60 km) drop off at railway station.</t>
   </si>
 </sst>
 </file>
@@ -3101,13 +3119,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBB1FC-4380-41DB-A744-3FA6E2D6B5A0}">
-  <dimension ref="A1:C220"/>
+  <dimension ref="A1:C221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C216" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C219" sqref="C219"/>
+      <selection pane="bottomRight" activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5526,7 +5544,28 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15" thickTop="1"/>
+    <row r="220" spans="1:3" ht="15" thickTop="1">
+      <c r="A220" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="101.5">
+      <c r="A221" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="B221" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="C221" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A220:A995">
     <cfRule type="duplicateValues" dxfId="63" priority="86"/>

--- a/Code.xlsx
+++ b/Code.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Desktop\Tripmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E69725-B067-4541-B9D7-5D379639563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FA600-79BE-43D4-BBA6-C2103120C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A7DA204-9130-4A06-A797-DA3B154BB46C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="476">
   <si>
     <t>Code</t>
   </si>
@@ -114,9 +114,6 @@
   <si>
     <t>Pickup from Indore Airport/Railway station and travel to Omkareshwar (3Hrs-90Km). Explore Omkareshwar and Mamleshwar, evening travel back to Indore.
 Indore to Ujjain travel(90mins-60Km)</t>
-  </si>
-  <si>
-    <t>IE-ID</t>
   </si>
   <si>
     <t>UP-UE-US</t>
@@ -1770,6 +1767,39 @@
   </si>
   <si>
     <t>Check out from the hotel room in Indore and travel to Ujjain( Approx.90 mins – 60 km) drop off at railway station.</t>
+  </si>
+  <si>
+    <t>Indore-Bhopal</t>
+  </si>
+  <si>
+    <t>Bhopal-Pachmarhi</t>
+  </si>
+  <si>
+    <t>Indore_Explore-Indore_Drop</t>
+  </si>
+  <si>
+    <t>Pachmarhi-Indore</t>
+  </si>
+  <si>
+    <t>Checkout the hotel room, travel from Bhopal to Pachmarhi (Approx. 5–6Hrs – 210Km) enroute visiting Bhojpur Temple and Bhimbetka Rock Shelters, on arrival check into the hotel and later explore local market or leisure time.
+*Pachmarhi Night Stay*</t>
+  </si>
+  <si>
+    <t>Indore-Bhopal_Explore_Nightstay</t>
+  </si>
+  <si>
+    <t>Checkout the hotel room, Indore to Bhopal travel (Approx. 5Hrs – 200Km), enroute or on arrival explore Bhojpur Temple, Bhimbetka Rock Shelters,  Tribal Museum and Upper Lake, later drop to the hotel room. 
+*Bhopal Night Stay*</t>
+  </si>
+  <si>
+    <t>Bhopal-Pachmarhi_Explore1_Nightstay</t>
+  </si>
+  <si>
+    <t>PachmarhiExplore_2-Indore_Nightstay</t>
+  </si>
+  <si>
+    <t>Checkout the hotel room, visit Pandava Caves, Bee Falls, Handi Khoh and other sightseeing as per time availability, later travel to Indore (Approx. 8–9Hrs – 400Km) and drop to the hotel. 
+*Indore Night Stay*</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2152,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2792,11 +2832,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F58E5A7-07FE-4901-9296-2F246269F556}" name="Table1" displayName="Table1" ref="A1:C996" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0F58E5A7-07FE-4901-9296-2F246269F556}" name="Table1" displayName="Table1" ref="A1:C996" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2017E978-A808-436D-BDFB-015F7509381F}" name="Code" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{4BBBB262-1777-4EF6-BAAA-95BFFC42479B}" name="Particulars" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{2B2D4E0C-2D1A-434E-B900-60B3DD11EBC8}" name="Route" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{2017E978-A808-436D-BDFB-015F7509381F}" name="Code" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{4BBBB262-1777-4EF6-BAAA-95BFFC42479B}" name="Particulars" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{2B2D4E0C-2D1A-434E-B900-60B3DD11EBC8}" name="Route" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3119,18 +3159,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBB1FC-4380-41DB-A744-3FA6E2D6B5A0}">
-  <dimension ref="A1:C221"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B219" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B221" sqref="B221"/>
+      <selection pane="bottomRight" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="124" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -3162,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
@@ -3184,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -3209,7 +3249,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3228,7 +3268,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -3242,7 +3282,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58">
@@ -3253,48 +3293,48 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="58">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="72.5">
       <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="87">
       <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="145">
       <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -3302,54 +3342,54 @@
     </row>
     <row r="16" spans="1:3" ht="87">
       <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="116">
       <c r="A18" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="116">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5">
       <c r="A20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>6</v>
@@ -3357,10 +3397,10 @@
     </row>
     <row r="21" spans="1:3" ht="58">
       <c r="A21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -3382,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>6</v>
@@ -3404,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
@@ -3423,24 +3463,24 @@
     </row>
     <row r="27" spans="1:3" ht="72.5">
       <c r="A27" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29">
       <c r="A28" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72.5">
@@ -3448,7 +3488,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>5</v>
@@ -3456,32 +3496,32 @@
     </row>
     <row r="30" spans="1:3" ht="72.5">
       <c r="A30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="58">
       <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58">
       <c r="A32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>14</v>
@@ -3489,10 +3529,10 @@
     </row>
     <row r="33" spans="1:3" ht="72.5">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>6</v>
@@ -3500,10 +3540,10 @@
     </row>
     <row r="34" spans="1:3" ht="101.5">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>6</v>
@@ -3511,10 +3551,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>14</v>
@@ -3522,10 +3562,10 @@
     </row>
     <row r="36" spans="1:3" ht="29">
       <c r="A36" s="9" t="s">
-        <v>24</v>
+        <v>468</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>14</v>
@@ -3533,21 +3573,21 @@
     </row>
     <row r="37" spans="1:3" ht="72.5">
       <c r="A37" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="87">
       <c r="A38" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>6</v>
@@ -3555,21 +3595,21 @@
     </row>
     <row r="39" spans="1:3" ht="101.5">
       <c r="A39" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.5">
       <c r="A40" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>5</v>
@@ -3577,54 +3617,54 @@
     </row>
     <row r="41" spans="1:3" ht="72.5">
       <c r="A41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.5">
       <c r="A42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.5">
       <c r="A43" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.5">
       <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>68</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="101.5">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>13</v>
@@ -3632,21 +3672,21 @@
     </row>
     <row r="46" spans="1:3" ht="87">
       <c r="A46" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="101.5">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>6</v>
@@ -3654,29 +3694,29 @@
     </row>
     <row r="48" spans="1:3" ht="43.5">
       <c r="A48" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="29">
       <c r="A49" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="29">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -3687,21 +3727,21 @@
     </row>
     <row r="51" spans="1:3" ht="72.5">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="87">
       <c r="A52" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>6</v>
@@ -3709,65 +3749,65 @@
     </row>
     <row r="53" spans="1:3" ht="29">
       <c r="A53" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.5">
       <c r="A56" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="58">
       <c r="A57" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="58">
       <c r="A58" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>13</v>
@@ -3775,43 +3815,43 @@
     </row>
     <row r="59" spans="1:3" ht="43.5">
       <c r="A59" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.5">
       <c r="A60" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>96</v>
-      </c>
       <c r="C61" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="101.5">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>13</v>
@@ -3819,7 +3859,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
@@ -3830,10 +3870,10 @@
     </row>
     <row r="64" spans="1:3" ht="43.5">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>5</v>
@@ -3841,10 +3881,10 @@
     </row>
     <row r="65" spans="1:3" ht="43.5">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>13</v>
@@ -3852,10 +3892,10 @@
     </row>
     <row r="66" spans="1:3" ht="72.5">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>5</v>
@@ -3863,10 +3903,10 @@
     </row>
     <row r="67" spans="1:3" ht="43.5">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>13</v>
@@ -3874,32 +3914,32 @@
     </row>
     <row r="68" spans="1:3" ht="72.5">
       <c r="A68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
       <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>13</v>
@@ -3907,10 +3947,10 @@
     </row>
     <row r="71" spans="1:3" ht="72.5">
       <c r="A71" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>5</v>
@@ -3918,21 +3958,21 @@
     </row>
     <row r="72" spans="1:3" ht="29">
       <c r="A72" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="43.5">
       <c r="A73" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>6</v>
@@ -3940,21 +3980,21 @@
     </row>
     <row r="74" spans="1:3" ht="87">
       <c r="A74" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="43.5">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>5</v>
@@ -3962,10 +4002,10 @@
     </row>
     <row r="76" spans="1:3" ht="58">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>14</v>
@@ -3973,21 +4013,21 @@
     </row>
     <row r="77" spans="1:3" ht="72.5">
       <c r="A77" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="C77" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="87">
       <c r="A78" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>6</v>
@@ -3995,21 +4035,21 @@
     </row>
     <row r="79" spans="1:3" ht="29">
       <c r="A79" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="C79" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="116">
       <c r="A80" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>124</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>6</v>
@@ -4017,32 +4057,32 @@
     </row>
     <row r="81" spans="1:3" ht="43.5">
       <c r="A81" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
       <c r="A82" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B82" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="C82" s="14" t="s">
         <v>129</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>13</v>
@@ -4050,32 +4090,32 @@
     </row>
     <row r="84" spans="1:3" ht="43.5">
       <c r="A84" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.5">
       <c r="A85" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="43.5">
       <c r="A86" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>13</v>
@@ -4083,10 +4123,10 @@
     </row>
     <row r="87" spans="1:3" ht="58">
       <c r="A87" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>137</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>6</v>
@@ -4094,32 +4134,32 @@
     </row>
     <row r="88" spans="1:3" ht="43.5">
       <c r="A88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="58">
       <c r="A89" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B89" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B89" s="17" t="s">
-        <v>140</v>
-      </c>
       <c r="C89" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="116">
       <c r="A90" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="17" t="s">
         <v>141</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>142</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>5</v>
@@ -4127,76 +4167,76 @@
     </row>
     <row r="91" spans="1:3" ht="58">
       <c r="A91" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="C91" s="11" t="s">
         <v>145</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="72.5">
       <c r="A92" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="B92" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>148</v>
-      </c>
       <c r="C92" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="43.5">
       <c r="A93" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>149</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="58">
       <c r="A94" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.5">
       <c r="A95" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="87">
       <c r="A96" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="C96" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="43.5">
       <c r="A97" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>13</v>
@@ -4204,54 +4244,54 @@
     </row>
     <row r="98" spans="1:3" ht="58">
       <c r="A98" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="43.5">
       <c r="A100" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="58">
       <c r="A101" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>170</v>
-      </c>
       <c r="C101" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="43.5">
       <c r="A102" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>14</v>
@@ -4259,76 +4299,76 @@
     </row>
     <row r="103" spans="1:3" ht="43.5">
       <c r="A103" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>173</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="43.5">
       <c r="A104" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="9" t="s">
         <v>178</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="72.5">
       <c r="A105" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="9" t="s">
         <v>180</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="43.5">
       <c r="A106" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="43.5">
       <c r="A107" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="43.5">
       <c r="A108" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29">
       <c r="A109" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>14</v>
@@ -4336,10 +4376,10 @@
     </row>
     <row r="110" spans="1:3" ht="43.5">
       <c r="A110" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>6</v>
@@ -4347,65 +4387,65 @@
     </row>
     <row r="111" spans="1:3" ht="43.5">
       <c r="A111" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B111" s="18" t="s">
-        <v>197</v>
-      </c>
       <c r="C111" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="58">
       <c r="A112" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="43.5">
       <c r="A114" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="43.5">
       <c r="A115" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B115" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="C115" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="43.5">
       <c r="A116" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>5</v>
@@ -4413,21 +4453,21 @@
     </row>
     <row r="117" spans="1:3" ht="58">
       <c r="A117" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>14</v>
@@ -4435,21 +4475,21 @@
     </row>
     <row r="119" spans="1:3" ht="29">
       <c r="A119" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>13</v>
@@ -4457,87 +4497,87 @@
     </row>
     <row r="121" spans="1:3" ht="58">
       <c r="A121" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="58">
       <c r="A122" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="72.5">
       <c r="A123" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="43.5">
       <c r="A124" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="29">
       <c r="A125" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="72.5">
       <c r="A126" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="C126" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="58">
       <c r="A127" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C127" s="9" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="43.5">
       <c r="A128" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>6</v>
@@ -4545,10 +4585,10 @@
     </row>
     <row r="129" spans="1:3" ht="44" thickBot="1">
       <c r="A129" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>5</v>
@@ -4556,43 +4596,43 @@
     </row>
     <row r="130" spans="1:3" ht="58.5" thickBot="1">
       <c r="A130" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="29">
       <c r="A131" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="C131" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="58.5" thickBot="1">
       <c r="A132" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="58.5" thickBot="1">
       <c r="A133" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>5</v>
@@ -4600,65 +4640,65 @@
     </row>
     <row r="134" spans="1:3" ht="58.5" thickBot="1">
       <c r="A134" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C134" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="B134" s="18" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="43.5">
       <c r="A135" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="43.5">
       <c r="A136" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="43.5">
       <c r="A137" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="43.5">
       <c r="A138" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="72.5">
       <c r="A139" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>13</v>
@@ -4666,109 +4706,109 @@
     </row>
     <row r="140" spans="1:3" ht="72.5">
       <c r="A140" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="43.5">
       <c r="A141" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="C141" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="58">
       <c r="A142" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="72.5">
       <c r="A143" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="72.5">
       <c r="A145" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C145" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.5">
       <c r="A147" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B147" s="13" t="s">
-        <v>271</v>
-      </c>
       <c r="C147" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="72.5">
       <c r="A148" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="58">
       <c r="A149" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>5</v>
@@ -4776,21 +4816,21 @@
     </row>
     <row r="150" spans="1:3" ht="29">
       <c r="A150" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B150" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="B150" s="18" t="s">
-        <v>311</v>
-      </c>
       <c r="C150" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="58">
       <c r="A151" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>5</v>
@@ -4798,142 +4838,142 @@
     </row>
     <row r="152" spans="1:3" ht="43.5">
       <c r="A152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B152" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B152" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="C152" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="43.5">
       <c r="A153" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="29">
       <c r="A154" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>321</v>
-      </c>
       <c r="C154" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="58">
       <c r="A155" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B155" s="18" t="s">
-        <v>324</v>
-      </c>
       <c r="C155" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="29">
       <c r="A156" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="B156" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>328</v>
-      </c>
-      <c r="B156" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="43.5">
       <c r="A157" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B157" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="B157" s="13" t="s">
-        <v>331</v>
-      </c>
       <c r="C157" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="43.5">
       <c r="A158" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="43.5">
       <c r="A159" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C159" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="43.5">
       <c r="A160" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B160" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="C160" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="58">
       <c r="A161" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="73" thickBot="1">
       <c r="A162" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="58.5" thickBot="1">
       <c r="A163" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="102" thickBot="1">
       <c r="A164" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>13</v>
@@ -4941,54 +4981,54 @@
     </row>
     <row r="165" spans="1:3" ht="44" thickBot="1">
       <c r="A165" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="43.5">
       <c r="A166" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>348</v>
-      </c>
       <c r="C166" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="58.5" thickBot="1">
       <c r="A167" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="C167" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="29.5" thickBot="1">
       <c r="A168" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="9" t="s">
         <v>352</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="29">
       <c r="A169" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B169" s="17" t="s">
         <v>354</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>355</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>13</v>
@@ -4996,10 +5036,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B170" s="27" t="s">
         <v>356</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>357</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>13</v>
@@ -5007,21 +5047,21 @@
     </row>
     <row r="171" spans="1:3" ht="44" thickBot="1">
       <c r="A171" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="C171" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="44" thickBot="1">
       <c r="A172" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>13</v>
@@ -5029,32 +5069,32 @@
     </row>
     <row r="173" spans="1:3" ht="58.5" thickBot="1">
       <c r="A173" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="44" thickBot="1">
       <c r="A174" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="29.5" thickBot="1">
       <c r="A175" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B175" s="17" t="s">
         <v>368</v>
-      </c>
-      <c r="B175" s="17" t="s">
-        <v>369</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>13</v>
@@ -5062,65 +5102,65 @@
     </row>
     <row r="176" spans="1:3" ht="44" thickBot="1">
       <c r="A176" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="29.5" thickBot="1">
       <c r="A177" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="58.5" thickBot="1">
       <c r="A178" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="C178" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="43.5">
       <c r="A179" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="C179" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="43.5">
       <c r="A180" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="B180" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="B180" s="13" t="s">
-        <v>380</v>
-      </c>
       <c r="C180" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="43.5">
       <c r="A181" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>13</v>
@@ -5128,43 +5168,43 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B182" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="B182" s="27" t="s">
-        <v>384</v>
-      </c>
       <c r="C182" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="29">
       <c r="A183" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="C183" s="11" t="s">
         <v>386</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C184" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="101.5">
       <c r="A185" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>13</v>
@@ -5172,21 +5212,21 @@
     </row>
     <row r="186" spans="1:3" ht="29">
       <c r="A186" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C186" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="43.5">
       <c r="A187" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>13</v>
@@ -5194,21 +5234,21 @@
     </row>
     <row r="188" spans="1:3" ht="101.5">
       <c r="A188" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B188" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B188" s="4" t="s">
+      <c r="C188" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="72.5">
       <c r="A189" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>6</v>
@@ -5216,43 +5256,43 @@
     </row>
     <row r="190" spans="1:3" ht="29">
       <c r="A190" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="58">
       <c r="A191" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="9" t="s">
         <v>402</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="87">
       <c r="A192" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="C192" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="58.5" thickBot="1">
       <c r="A193" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>6</v>
@@ -5260,10 +5300,10 @@
     </row>
     <row r="194" spans="1:3" ht="44" thickBot="1">
       <c r="A194" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>13</v>
@@ -5271,76 +5311,76 @@
     </row>
     <row r="195" spans="1:3" ht="29">
       <c r="A195" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B195" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="B195" s="13" t="s">
-        <v>410</v>
-      </c>
       <c r="C195" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="29">
       <c r="A196" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="29">
       <c r="A197" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>413</v>
-      </c>
       <c r="C197" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="43.5">
       <c r="A198" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="C198" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="43.5">
       <c r="A199" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="43.5">
       <c r="A200" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C200" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="58">
       <c r="A201" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>13</v>
@@ -5348,10 +5388,10 @@
     </row>
     <row r="202" spans="1:3" ht="58">
       <c r="A202" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>13</v>
@@ -5359,32 +5399,32 @@
     </row>
     <row r="203" spans="1:3" ht="29">
       <c r="A203" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="C203" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="72.5">
       <c r="A204" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B204" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="C204" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="58">
       <c r="A205" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B205" s="18" t="s">
         <v>427</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>428</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>13</v>
@@ -5392,10 +5432,10 @@
     </row>
     <row r="206" spans="1:3" ht="29.5" thickBot="1">
       <c r="A206" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>14</v>
@@ -5403,76 +5443,76 @@
     </row>
     <row r="207" spans="1:3" ht="44" thickBot="1">
       <c r="A207" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="C207" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="29.5" thickTop="1">
       <c r="A208" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="B208" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="B208" s="13" t="s">
-        <v>434</v>
-      </c>
       <c r="C208" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="87.5" thickBot="1">
       <c r="A209" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="9" t="s">
         <v>436</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="58.5" thickBot="1">
       <c r="A210" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="B210" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="B210" s="17" t="s">
-        <v>439</v>
-      </c>
       <c r="C210" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" thickTop="1" thickBot="1">
       <c r="A211" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>441</v>
-      </c>
       <c r="C211" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="73" thickTop="1">
       <c r="A212" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B212" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="B212" s="18" t="s">
-        <v>443</v>
-      </c>
       <c r="C212" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="43.5">
       <c r="A213" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>445</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>13</v>
@@ -5480,76 +5520,76 @@
     </row>
     <row r="214" spans="1:3" ht="58">
       <c r="A214" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="C214" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="43.5">
       <c r="A215" s="31" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="58">
       <c r="A216" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C216" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="43.5">
       <c r="A217" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C217" s="9" t="s">
         <v>453</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="58.5" thickBot="1">
       <c r="A218" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="B218" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C218" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="B218" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="C218" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="87.5" thickBot="1">
       <c r="A219" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickTop="1">
       <c r="A220" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>5</v>
@@ -5557,175 +5597,211 @@
     </row>
     <row r="221" spans="1:3" ht="101.5">
       <c r="A221" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="B221" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="B221" s="13" t="s">
-        <v>465</v>
-      </c>
       <c r="C221" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="43.5">
+      <c r="A222" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="43.5">
+      <c r="A223" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="43.5">
+      <c r="A224" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A220:A995">
-    <cfRule type="duplicateValues" dxfId="63" priority="86"/>
+  <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A220:A221 A223:A995">
+    <cfRule type="duplicateValues" dxfId="64" priority="87"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A174 A176:A194 A213 A220:A1048576">
-    <cfRule type="duplicateValues" dxfId="62" priority="32"/>
+  <conditionalFormatting sqref="A1:A174 A176:A194 A213 A998:A1048576 A220:A996">
+    <cfRule type="duplicateValues" dxfId="63" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A194 A213 A220:A1048576">
-    <cfRule type="duplicateValues" dxfId="61" priority="27"/>
+  <conditionalFormatting sqref="A1:A194 A213 A998:A1048576 A220:A996">
+    <cfRule type="duplicateValues" dxfId="62" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
+    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="60" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A74">
     <cfRule type="duplicateValues" dxfId="59" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="58" priority="71"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A77">
     <cfRule type="duplicateValues" dxfId="57" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="56" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="55" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A82">
     <cfRule type="duplicateValues" dxfId="54" priority="67"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
+  <conditionalFormatting sqref="A83">
     <cfRule type="duplicateValues" dxfId="53" priority="66"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A84">
     <cfRule type="duplicateValues" dxfId="52" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84">
+  <conditionalFormatting sqref="A85">
     <cfRule type="duplicateValues" dxfId="51" priority="64"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A85">
+  <conditionalFormatting sqref="A86">
     <cfRule type="duplicateValues" dxfId="50" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A86">
+  <conditionalFormatting sqref="A87">
     <cfRule type="duplicateValues" dxfId="49" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+  <conditionalFormatting sqref="A88">
     <cfRule type="duplicateValues" dxfId="48" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A88">
+  <conditionalFormatting sqref="A89">
     <cfRule type="duplicateValues" dxfId="47" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A89">
+  <conditionalFormatting sqref="A91">
     <cfRule type="duplicateValues" dxfId="46" priority="59"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="45" priority="58"/>
+  <conditionalFormatting sqref="A99">
+    <cfRule type="duplicateValues" dxfId="45" priority="52"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A99">
+  <conditionalFormatting sqref="A100">
     <cfRule type="duplicateValues" dxfId="44" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A100">
+  <conditionalFormatting sqref="A109">
     <cfRule type="duplicateValues" dxfId="43" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="42" priority="49"/>
+  <conditionalFormatting sqref="A110">
+    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A110">
+  <conditionalFormatting sqref="A111">
     <cfRule type="duplicateValues" dxfId="41" priority="47"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A111">
+  <conditionalFormatting sqref="A113">
     <cfRule type="duplicateValues" dxfId="40" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A113">
+  <conditionalFormatting sqref="A115">
     <cfRule type="duplicateValues" dxfId="39" priority="45"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A115">
+  <conditionalFormatting sqref="A133">
     <cfRule type="duplicateValues" dxfId="38" priority="44"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133">
+  <conditionalFormatting sqref="A134">
     <cfRule type="duplicateValues" dxfId="37" priority="43"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A134">
+  <conditionalFormatting sqref="A135">
     <cfRule type="duplicateValues" dxfId="36" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135">
+  <conditionalFormatting sqref="A143">
     <cfRule type="duplicateValues" dxfId="35" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A143">
+  <conditionalFormatting sqref="A149">
     <cfRule type="duplicateValues" dxfId="34" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A149">
+  <conditionalFormatting sqref="A150">
     <cfRule type="duplicateValues" dxfId="33" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A150">
+  <conditionalFormatting sqref="A155">
     <cfRule type="duplicateValues" dxfId="32" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A155">
+  <conditionalFormatting sqref="A156">
     <cfRule type="duplicateValues" dxfId="31" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A156">
-    <cfRule type="duplicateValues" dxfId="30" priority="36"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A169:A172 A174">
-    <cfRule type="duplicateValues" dxfId="29" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="27" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:A196">
-    <cfRule type="duplicateValues" dxfId="22" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204:A212 A195:A202">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
+    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A210">
     <cfRule type="duplicateValues" dxfId="19" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A210">
+  <conditionalFormatting sqref="A212">
     <cfRule type="duplicateValues" dxfId="18" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A212">
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A998:A1048576 A1:A127 A129:A168 A177:A181 A183:A193 A213 A220:A995">
-    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+  <conditionalFormatting sqref="A222">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A127 A129:A168 A177:A181 A183:A193 A213 A998:A1048576 A220:A995">
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/Code.xlsx
+++ b/Code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arpith Shetty\Desktop\Tripmate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138FA600-79BE-43D4-BBA6-C2103120C897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005362C-0064-4D40-9055-581B8C206D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7A7DA204-9130-4A06-A797-DA3B154BB46C}"/>
   </bookViews>
@@ -92,9 +92,6 @@
 *Indore Night stay*</t>
   </si>
   <si>
-    <t>IP</t>
-  </si>
-  <si>
     <t>Pickup from Indore Airport/Railway station and drop to Hotel room in Indore.</t>
   </si>
   <si>
@@ -233,9 +230,6 @@
 Khajrana Temple,
 Rajwada palace, Annapurna Temple , Lal Bagh Palace, Regional Park , Treasure Island
 Mall ,Chappan dukan,Central Museum. Drop to Indore Airport.</t>
-  </si>
-  <si>
-    <t>UC-OE-IS</t>
   </si>
   <si>
     <t>BH-UC-OE-IS</t>
@@ -1781,10 +1775,6 @@
     <t>Pachmarhi-Indore</t>
   </si>
   <si>
-    <t>Checkout the hotel room, travel from Bhopal to Pachmarhi (Approx. 5–6Hrs – 210Km) enroute visiting Bhojpur Temple and Bhimbetka Rock Shelters, on arrival check into the hotel and later explore local market or leisure time.
-*Pachmarhi Night Stay*</t>
-  </si>
-  <si>
     <t>Indore-Bhopal_Explore_Nightstay</t>
   </si>
   <si>
@@ -1798,7 +1788,17 @@
     <t>PachmarhiExplore_2-Indore_Nightstay</t>
   </si>
   <si>
-    <t>Checkout the hotel room, visit Pandava Caves, Bee Falls, Handi Khoh and other sightseeing as per time availability, later travel to Indore (Approx. 8–9Hrs – 400Km) and drop to the hotel. 
+    <t>IP-HD</t>
+  </si>
+  <si>
+    <t>UHC-OE-IS</t>
+  </si>
+  <si>
+    <t>Checkout the hotel room, travel from Bhopal to Pachmarhi (Approx. 5–6Hrs – 210Km) enroute visiting visit Pandava Caves, Bee Falls, Handi Khoh on arrival check into the hotel and later explore local market or leisure time.
+*Pachmarhi Night Stay*</t>
+  </si>
+  <si>
+    <t>Checkout the hotel room, travel to Indore (Approx. 8–9Hrs – 400Km) and drop to the hotel. 
 *Indore Night Stay*</t>
   </si>
 </sst>
@@ -3162,10 +3162,10 @@
   <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A224" sqref="A224"/>
+      <selection pane="bottomRight" activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3202,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>6</v>
@@ -3224,7 +3224,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>13</v>
@@ -3249,15 +3249,15 @@
         <v>16</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>14</v>
@@ -3265,10 +3265,10 @@
     </row>
     <row r="9" spans="1:3" ht="87">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>5</v>
@@ -3276,65 +3276,65 @@
     </row>
     <row r="10" spans="1:3" ht="87">
       <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58">
       <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="58">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="72.5">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="87">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="145">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>6</v>
@@ -3342,54 +3342,54 @@
     </row>
     <row r="16" spans="1:3" ht="87">
       <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="72.5">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="116">
       <c r="A18" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="116">
       <c r="A19" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="72.5">
       <c r="A20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>6</v>
@@ -3397,10 +3397,10 @@
     </row>
     <row r="21" spans="1:3" ht="58">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
@@ -3422,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>6</v>
@@ -3444,7 +3444,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>13</v>
@@ -3463,32 +3463,32 @@
     </row>
     <row r="27" spans="1:3" ht="72.5">
       <c r="A27" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="29">
       <c r="A28" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="72.5">
       <c r="A29" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>5</v>
@@ -3496,32 +3496,32 @@
     </row>
     <row r="30" spans="1:3" ht="72.5">
       <c r="A30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="58">
       <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C31" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="58">
       <c r="A32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>14</v>
@@ -3529,10 +3529,10 @@
     </row>
     <row r="33" spans="1:3" ht="72.5">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>473</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>6</v>
@@ -3540,10 +3540,10 @@
     </row>
     <row r="34" spans="1:3" ht="101.5">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>6</v>
@@ -3551,10 +3551,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>14</v>
@@ -3562,10 +3562,10 @@
     </row>
     <row r="36" spans="1:3" ht="29">
       <c r="A36" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>14</v>
@@ -3573,21 +3573,21 @@
     </row>
     <row r="37" spans="1:3" ht="72.5">
       <c r="A37" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="87">
       <c r="A38" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>6</v>
@@ -3595,21 +3595,21 @@
     </row>
     <row r="39" spans="1:3" ht="101.5">
       <c r="A39" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="43.5">
       <c r="A40" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>5</v>
@@ -3617,54 +3617,54 @@
     </row>
     <row r="41" spans="1:3" ht="72.5">
       <c r="A41" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="43.5">
       <c r="A42" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="43.5">
       <c r="A43" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="43.5">
       <c r="A44" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="101.5">
       <c r="A45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>13</v>
@@ -3672,21 +3672,21 @@
     </row>
     <row r="46" spans="1:3" ht="87">
       <c r="A46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="101.5">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>6</v>
@@ -3694,29 +3694,29 @@
     </row>
     <row r="48" spans="1:3" ht="43.5">
       <c r="A48" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="29">
       <c r="A49" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="29">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>11</v>
@@ -3727,21 +3727,21 @@
     </row>
     <row r="51" spans="1:3" ht="72.5">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="87">
       <c r="A52" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>6</v>
@@ -3749,65 +3749,65 @@
     </row>
     <row r="53" spans="1:3" ht="29">
       <c r="A53" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="43.5">
       <c r="A56" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="58">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C58" s="9" t="s">
         <v>13</v>
@@ -3815,43 +3815,43 @@
     </row>
     <row r="59" spans="1:3" ht="43.5">
       <c r="A59" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="43.5">
       <c r="A60" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C60" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="43.5">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="101.5">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>13</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>12</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="64" spans="1:3" ht="43.5">
       <c r="A64" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>5</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="65" spans="1:3" ht="43.5">
       <c r="A65" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>13</v>
@@ -3892,10 +3892,10 @@
     </row>
     <row r="66" spans="1:3" ht="72.5">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>5</v>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="67" spans="1:3" ht="43.5">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>13</v>
@@ -3914,32 +3914,32 @@
     </row>
     <row r="68" spans="1:3" ht="72.5">
       <c r="A68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C68" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="43.5">
       <c r="A69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C69" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="43.5">
       <c r="A70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>13</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="71" spans="1:3" ht="72.5">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>5</v>
@@ -3958,21 +3958,21 @@
     </row>
     <row r="72" spans="1:3" ht="29">
       <c r="A72" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="43.5">
       <c r="A73" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>6</v>
@@ -3980,21 +3980,21 @@
     </row>
     <row r="74" spans="1:3" ht="87">
       <c r="A74" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="43.5">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>5</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="76" spans="1:3" ht="58">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C76" s="14" t="s">
         <v>14</v>
@@ -4013,21 +4013,21 @@
     </row>
     <row r="77" spans="1:3" ht="72.5">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="87">
       <c r="A78" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>6</v>
@@ -4035,21 +4035,21 @@
     </row>
     <row r="79" spans="1:3" ht="29">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="116">
       <c r="A80" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>6</v>
@@ -4057,32 +4057,32 @@
     </row>
     <row r="81" spans="1:3" ht="43.5">
       <c r="A81" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>124</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.5">
       <c r="A82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C83" s="9" t="s">
         <v>13</v>
@@ -4090,32 +4090,32 @@
     </row>
     <row r="84" spans="1:3" ht="43.5">
       <c r="A84" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B84" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="43.5">
       <c r="A85" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="43.5">
       <c r="A86" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C86" s="14" t="s">
         <v>13</v>
@@ -4123,10 +4123,10 @@
     </row>
     <row r="87" spans="1:3" ht="58">
       <c r="A87" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B87" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C87" s="14" t="s">
         <v>6</v>
@@ -4134,32 +4134,32 @@
     </row>
     <row r="88" spans="1:3" ht="43.5">
       <c r="A88" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="58">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="116">
       <c r="A90" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>5</v>
@@ -4167,76 +4167,76 @@
     </row>
     <row r="91" spans="1:3" ht="58">
       <c r="A91" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C91" s="11" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="72.5">
       <c r="A92" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="43.5">
       <c r="A93" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="58">
       <c r="A94" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="43.5">
       <c r="A95" s="22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="87">
       <c r="A96" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>154</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="43.5">
       <c r="A97" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>13</v>
@@ -4244,54 +4244,54 @@
     </row>
     <row r="98" spans="1:3" ht="58">
       <c r="A98" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="43.5">
       <c r="A100" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="58">
       <c r="A101" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="43.5">
       <c r="A102" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C102" s="9" t="s">
         <v>14</v>
@@ -4299,76 +4299,76 @@
     </row>
     <row r="103" spans="1:3" ht="43.5">
       <c r="A103" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C103" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="43.5">
       <c r="A104" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="72.5">
       <c r="A105" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="C105" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="43.5">
       <c r="A106" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C106" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="43.5">
       <c r="A107" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="43.5">
       <c r="A108" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="29">
       <c r="A109" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>14</v>
@@ -4376,10 +4376,10 @@
     </row>
     <row r="110" spans="1:3" ht="43.5">
       <c r="A110" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>6</v>
@@ -4387,65 +4387,65 @@
     </row>
     <row r="111" spans="1:3" ht="43.5">
       <c r="A111" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="58">
       <c r="A112" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="43.5">
       <c r="A114" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="43.5">
       <c r="A115" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B115" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="43.5">
       <c r="A116" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C116" s="9" t="s">
         <v>5</v>
@@ -4453,21 +4453,21 @@
     </row>
     <row r="117" spans="1:3" ht="58">
       <c r="A117" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>14</v>
@@ -4475,21 +4475,21 @@
     </row>
     <row r="119" spans="1:3" ht="29">
       <c r="A119" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="43.5">
       <c r="A120" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C120" s="9" t="s">
         <v>13</v>
@@ -4497,87 +4497,87 @@
     </row>
     <row r="121" spans="1:3" ht="58">
       <c r="A121" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="58">
       <c r="A122" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="72.5">
       <c r="A123" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="43.5">
       <c r="A124" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="29">
       <c r="A125" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="72.5">
       <c r="A126" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="58">
       <c r="A127" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="43.5">
       <c r="A128" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>6</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="129" spans="1:3" ht="44" thickBot="1">
       <c r="A129" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C129" s="9" t="s">
         <v>5</v>
@@ -4596,43 +4596,43 @@
     </row>
     <row r="130" spans="1:3" ht="58.5" thickBot="1">
       <c r="A130" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="29">
       <c r="A131" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="58.5" thickBot="1">
       <c r="A132" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="58.5" thickBot="1">
       <c r="A133" s="26" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C133" s="14" t="s">
         <v>5</v>
@@ -4640,65 +4640,65 @@
     </row>
     <row r="134" spans="1:3" ht="58.5" thickBot="1">
       <c r="A134" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="B134" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B134" s="18" t="s">
-        <v>238</v>
-      </c>
       <c r="C134" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="43.5">
       <c r="A135" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="43.5">
       <c r="A136" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="43.5">
       <c r="A137" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="43.5">
       <c r="A138" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B138" s="12" t="s">
-        <v>248</v>
-      </c>
       <c r="C138" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="72.5">
       <c r="A139" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C139" s="14" t="s">
         <v>13</v>
@@ -4706,109 +4706,109 @@
     </row>
     <row r="140" spans="1:3" ht="72.5">
       <c r="A140" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="43.5">
       <c r="A141" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="58">
       <c r="A142" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="72.5">
       <c r="A143" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="72.5">
       <c r="A145" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="43.5">
       <c r="A147" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B147" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C147" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="72.5">
       <c r="A148" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="58">
       <c r="A149" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C149" s="9" t="s">
         <v>5</v>
@@ -4816,21 +4816,21 @@
     </row>
     <row r="150" spans="1:3" ht="29">
       <c r="A150" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="58">
       <c r="A151" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C151" s="9" t="s">
         <v>5</v>
@@ -4838,142 +4838,142 @@
     </row>
     <row r="152" spans="1:3" ht="43.5">
       <c r="A152" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="43.5">
       <c r="A153" s="5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="29">
       <c r="A154" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="58">
       <c r="A155" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="29">
       <c r="A156" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B156" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>326</v>
-      </c>
-      <c r="C156" s="11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="43.5">
       <c r="A157" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C157" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="43.5">
       <c r="A158" s="22" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="43.5">
       <c r="A159" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C159" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="43.5">
       <c r="A160" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="58">
       <c r="A161" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C161" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="73" thickBot="1">
       <c r="A162" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="C162" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="58.5" thickBot="1">
       <c r="A163" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="C163" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="102" thickBot="1">
       <c r="A164" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C164" s="9" t="s">
         <v>13</v>
@@ -4981,54 +4981,54 @@
     </row>
     <row r="165" spans="1:3" ht="44" thickBot="1">
       <c r="A165" s="25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="43.5">
       <c r="A166" s="22" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B166" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C166" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="58.5" thickBot="1">
       <c r="A167" s="22" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="29.5" thickBot="1">
       <c r="A168" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="9" t="s">
         <v>350</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="29">
       <c r="A169" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B169" s="17" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C169" s="9" t="s">
         <v>13</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C170" s="9" t="s">
         <v>13</v>
@@ -5047,21 +5047,21 @@
     </row>
     <row r="171" spans="1:3" ht="44" thickBot="1">
       <c r="A171" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="44" thickBot="1">
       <c r="A172" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C172" s="9" t="s">
         <v>13</v>
@@ -5069,32 +5069,32 @@
     </row>
     <row r="173" spans="1:3" ht="58.5" thickBot="1">
       <c r="A173" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C173" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="44" thickBot="1">
       <c r="A174" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="29.5" thickBot="1">
       <c r="A175" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B175" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>13</v>
@@ -5102,65 +5102,65 @@
     </row>
     <row r="176" spans="1:3" ht="44" thickBot="1">
       <c r="A176" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="29.5" thickBot="1">
       <c r="A177" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="58.5" thickBot="1">
       <c r="A178" s="25" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="43.5">
       <c r="A179" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="43.5">
       <c r="A180" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="43.5">
       <c r="A181" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C181" s="9" t="s">
         <v>13</v>
@@ -5168,43 +5168,43 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B182" s="27" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="29">
       <c r="A183" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="B183" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="C183" s="11" t="s">
         <v>384</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="C183" s="11" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="C184" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="101.5">
       <c r="A185" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C185" s="9" t="s">
         <v>13</v>
@@ -5212,21 +5212,21 @@
     </row>
     <row r="186" spans="1:3" ht="29">
       <c r="A186" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="43.5">
       <c r="A187" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C187" s="9" t="s">
         <v>13</v>
@@ -5234,21 +5234,21 @@
     </row>
     <row r="188" spans="1:3" ht="101.5">
       <c r="A188" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C188" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="72.5">
       <c r="A189" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C189" s="9" t="s">
         <v>6</v>
@@ -5256,43 +5256,43 @@
     </row>
     <row r="190" spans="1:3" ht="29">
       <c r="A190" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="58">
       <c r="A191" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C191" s="9" t="s">
         <v>400</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="87">
       <c r="A192" s="5" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C192" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="58.5" thickBot="1">
       <c r="A193" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>6</v>
@@ -5300,10 +5300,10 @@
     </row>
     <row r="194" spans="1:3" ht="44" thickBot="1">
       <c r="A194" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>13</v>
@@ -5311,76 +5311,76 @@
     </row>
     <row r="195" spans="1:3" ht="29">
       <c r="A195" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="29">
       <c r="A196" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="29">
       <c r="A197" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C197" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="43.5">
       <c r="A198" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C198" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="43.5">
       <c r="A199" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C199" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="43.5">
       <c r="A200" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="58">
       <c r="A201" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>13</v>
@@ -5388,10 +5388,10 @@
     </row>
     <row r="202" spans="1:3" ht="58">
       <c r="A202" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C202" s="9" t="s">
         <v>13</v>
@@ -5399,32 +5399,32 @@
     </row>
     <row r="203" spans="1:3" ht="29">
       <c r="A203" s="24" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C203" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="72.5">
       <c r="A204" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="58">
       <c r="A205" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C205" s="14" t="s">
         <v>13</v>
@@ -5432,10 +5432,10 @@
     </row>
     <row r="206" spans="1:3" ht="29.5" thickBot="1">
       <c r="A206" s="9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C206" s="9" t="s">
         <v>14</v>
@@ -5443,76 +5443,76 @@
     </row>
     <row r="207" spans="1:3" ht="44" thickBot="1">
       <c r="A207" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C207" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="29.5" thickTop="1">
       <c r="A208" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C208" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="87.5" thickBot="1">
       <c r="A209" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="58.5" thickBot="1">
       <c r="A210" s="29" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" thickTop="1" thickBot="1">
       <c r="A211" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C211" s="9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="73" thickTop="1">
       <c r="A212" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="43.5">
       <c r="A213" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>13</v>
@@ -5520,76 +5520,76 @@
     </row>
     <row r="214" spans="1:3" ht="58">
       <c r="A214" s="30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="43.5">
       <c r="A215" s="31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="58">
       <c r="A216" s="31" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="43.5">
       <c r="A217" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C217" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="58.5" thickBot="1">
       <c r="A218" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="B218" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B218" s="13" t="s">
-        <v>458</v>
-      </c>
       <c r="C218" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="87.5" thickBot="1">
       <c r="A219" s="32" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15" thickTop="1">
       <c r="A220" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C220" s="9" t="s">
         <v>5</v>
@@ -5597,211 +5597,211 @@
     </row>
     <row r="221" spans="1:3" ht="101.5">
       <c r="A221" s="23" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C221" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="43.5">
       <c r="A222" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="43.5">
       <c r="A223" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="43.5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="29">
       <c r="A224" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>475</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A127 A129:A148 A150:A168 A177:A181 A183:A193 A213 A220:A221 A223:A995">
     <cfRule type="duplicateValues" dxfId="64" priority="87"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A127 A129:A168 A177:A181 A183:A193 A213 A998:A1048576 A220:A995">
+    <cfRule type="duplicateValues" dxfId="63" priority="115"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A174 A176:A194 A213 A998:A1048576 A220:A996">
-    <cfRule type="duplicateValues" dxfId="63" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A194 A213 A998:A1048576 A220:A996">
-    <cfRule type="duplicateValues" dxfId="62" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72">
-    <cfRule type="duplicateValues" dxfId="61" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="74"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
-    <cfRule type="duplicateValues" dxfId="60" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="73"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74">
-    <cfRule type="duplicateValues" dxfId="59" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="72"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76">
-    <cfRule type="duplicateValues" dxfId="58" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="71"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77">
-    <cfRule type="duplicateValues" dxfId="57" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="70"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="duplicateValues" dxfId="56" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="69"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="duplicateValues" dxfId="55" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="54" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="67"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="duplicateValues" dxfId="53" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="66"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="duplicateValues" dxfId="52" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="duplicateValues" dxfId="51" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A86">
-    <cfRule type="duplicateValues" dxfId="50" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A87">
-    <cfRule type="duplicateValues" dxfId="49" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88">
-    <cfRule type="duplicateValues" dxfId="48" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="duplicateValues" dxfId="47" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A91">
-    <cfRule type="duplicateValues" dxfId="46" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99">
-    <cfRule type="duplicateValues" dxfId="45" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A100">
-    <cfRule type="duplicateValues" dxfId="44" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109">
-    <cfRule type="duplicateValues" dxfId="43" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A110">
-    <cfRule type="duplicateValues" dxfId="42" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111">
-    <cfRule type="duplicateValues" dxfId="41" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="47"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A113">
-    <cfRule type="duplicateValues" dxfId="40" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A115">
-    <cfRule type="duplicateValues" dxfId="39" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="45"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A133">
-    <cfRule type="duplicateValues" dxfId="38" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A134">
-    <cfRule type="duplicateValues" dxfId="37" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="43"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A135">
-    <cfRule type="duplicateValues" dxfId="36" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A143">
-    <cfRule type="duplicateValues" dxfId="35" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A149">
-    <cfRule type="duplicateValues" dxfId="34" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A150">
-    <cfRule type="duplicateValues" dxfId="33" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A155">
-    <cfRule type="duplicateValues" dxfId="32" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A156">
-    <cfRule type="duplicateValues" dxfId="31" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A169:A172 A174">
-    <cfRule type="duplicateValues" dxfId="30" priority="34"/>
     <cfRule type="duplicateValues" dxfId="29" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A175">
-    <cfRule type="duplicateValues" dxfId="28" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A182">
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
     <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A194">
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A195:A196">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A204:A212 A195:A202">
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
     <cfRule type="duplicateValues" dxfId="21" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A205">
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A210">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A212">
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A215">
-    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A216">
-    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A217">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
     <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A218">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A222">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A127 A129:A168 A177:A181 A183:A193 A213 A998:A1048576 A220:A995">
-    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
